--- a/spring-test-dbunit-sample/src/test/resources/expectedData3.xlsx
+++ b/spring-test-dbunit-sample/src/test/resources/expectedData3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yin/cheese8-springtestdbunit/spring-test-dbunit-sample/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EDCA236B-EDA4-F643-9B2D-EA70B852E913}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F74ACEDB-C4DC-594C-AE41-301144C29230}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="25000" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="25000" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mrs</t>
+    <t>Mr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -585,7 +585,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>456</v>
+        <v>123</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -627,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>654</v>
+        <v>789</v>
       </c>
       <c r="D3">
         <v>0</v>
